--- a/Results/case3/case3.xlsx
+++ b/Results/case3/case3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\文件\GitHub\MDP\Results\case3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_D91C74290161F84FE72564B74F5DCE3A6745250C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{644F1BBD-DAF2-46F8-866B-C74DCE4F64B3}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_D91C74290161F84FE72564B74F5DCE3A6745250C" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{67BED162-38EA-42D8-859A-899D1971E988}"/>
   <bookViews>
-    <workbookView xWindow="27660" yWindow="3795" windowWidth="2040" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.7" sheetId="1" r:id="rId1"/>
@@ -790,6 +790,7 @@
         <c:crossAx val="1694866815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4514,7 +4515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
